--- a/saved_models/SetBased/results/setbased.xlsx
+++ b/saved_models/SetBased/results/setbased.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.181</v>
+        <v>0.258</v>
       </c>
       <c r="C2" t="n">
         <v>0.515</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.027</v>
+        <v>0.031</v>
       </c>
       <c r="C3" t="n">
         <v>0.571</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.134</v>
+        <v>0.132</v>
       </c>
       <c r="C4" t="n">
         <v>0.512</v>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="C5" t="n">
         <v>0.556</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.269</v>
+        <v>0.286</v>
       </c>
       <c r="C6" t="n">
         <v>0.504</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.139</v>
+        <v>0.156</v>
       </c>
       <c r="C7" t="n">
         <v>0.521</v>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.068</v>
+        <v>0.074</v>
       </c>
       <c r="C9" t="n">
         <v>0.523</v>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.091</v>
+        <v>0.18</v>
       </c>
       <c r="C10" t="n">
         <v>0.55</v>
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.271</v>
+        <v>0.349</v>
       </c>
       <c r="C11" t="n">
         <v>0.52</v>
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.244</v>
+        <v>0.465</v>
       </c>
       <c r="C12" t="n">
         <v>0.523</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.065</v>
+        <v>0.257</v>
       </c>
       <c r="C13" t="n">
         <v>0.571</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="C14" t="n">
         <v>0.521</v>
@@ -593,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.129</v>
+        <v>0.179</v>
       </c>
       <c r="C15" t="n">
         <v>0.509</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.173</v>
+        <v>0.226</v>
       </c>
       <c r="C16" t="n">
         <v>0.505</v>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.309</v>
+        <v>0.301</v>
       </c>
       <c r="C17" t="n">
         <v>0.503</v>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.145</v>
+        <v>0.153</v>
       </c>
       <c r="C18" t="n">
         <v>0.509</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.18</v>
+        <v>0.197</v>
       </c>
       <c r="C19" t="n">
         <v>0.524</v>
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.105</v>
+        <v>0.143</v>
       </c>
       <c r="C20" t="n">
         <v>0.523</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.391</v>
+        <v>0.398</v>
       </c>
       <c r="C21" t="n">
         <v>0.511</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="C22" t="n">
         <v>0.52</v>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.23</v>
+        <v>0.221</v>
       </c>
       <c r="C23" t="n">
         <v>0.507</v>
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04</v>
+        <v>0.054</v>
       </c>
       <c r="C24" t="n">
         <v>0.514</v>
@@ -703,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.058</v>
       </c>
       <c r="C25" t="n">
         <v>0.516</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135</v>
+        <v>0.182</v>
       </c>
       <c r="C26" t="n">
         <v>0.51</v>
@@ -725,7 +725,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.302</v>
+        <v>0.339</v>
       </c>
       <c r="C27" t="n">
         <v>0.515</v>
@@ -736,7 +736,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.036</v>
+        <v>0.18</v>
       </c>
       <c r="C28" t="n">
         <v>0.545</v>
@@ -747,7 +747,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.201</v>
+        <v>0.179</v>
       </c>
       <c r="C29" t="n">
         <v>0.51</v>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.09</v>
+        <v>0.097</v>
       </c>
       <c r="C30" t="n">
         <v>0.511</v>
@@ -769,7 +769,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.132</v>
+        <v>0.183</v>
       </c>
       <c r="C31" t="n">
         <v>0.529</v>
@@ -780,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.148</v>
+        <v>0.203</v>
       </c>
       <c r="C32" t="n">
         <v>0.509</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.082</v>
+        <v>0.111</v>
       </c>
       <c r="C33" t="n">
         <v>0.517</v>
@@ -802,7 +802,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.19</v>
+        <v>0.215</v>
       </c>
       <c r="C34" t="n">
         <v>0.509</v>
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.211</v>
+        <v>0.264</v>
       </c>
       <c r="C35" t="n">
         <v>0.513</v>
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.095</v>
+        <v>0.081</v>
       </c>
       <c r="C36" t="n">
         <v>0.536</v>
@@ -835,7 +835,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.112</v>
+        <v>0.104</v>
       </c>
       <c r="C37" t="n">
         <v>0.556</v>
@@ -846,7 +846,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.367</v>
+        <v>0.439</v>
       </c>
       <c r="C38" t="n">
         <v>0.505</v>
@@ -857,7 +857,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="C39" t="n">
         <v>0.509</v>
@@ -868,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.299</v>
+        <v>0.304</v>
       </c>
       <c r="C40" t="n">
         <v>0.503</v>
@@ -879,7 +879,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.205</v>
+        <v>0.224</v>
       </c>
       <c r="C41" t="n">
         <v>0.503</v>
@@ -890,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.255</v>
+        <v>0.206</v>
       </c>
       <c r="C42" t="n">
         <v>0.533</v>
@@ -901,7 +901,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103</v>
+        <v>0.117</v>
       </c>
       <c r="C43" t="n">
         <v>0.511</v>
@@ -912,7 +912,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221</v>
+        <v>0.23</v>
       </c>
       <c r="C44" t="n">
         <v>0.505</v>
@@ -923,7 +923,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.299</v>
+        <v>0.38</v>
       </c>
       <c r="C45" t="n">
         <v>0.504</v>
@@ -934,7 +934,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.077</v>
+        <v>0.17</v>
       </c>
       <c r="C46" t="n">
         <v>0.525</v>
@@ -945,7 +945,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.141</v>
+        <v>0.186</v>
       </c>
       <c r="C47" t="n">
         <v>0.528</v>
@@ -956,7 +956,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09</v>
+        <v>0.104</v>
       </c>
       <c r="C48" t="n">
         <v>0.508</v>
@@ -967,7 +967,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.175</v>
+        <v>0.156</v>
       </c>
       <c r="C49" t="n">
         <v>0.517</v>
@@ -978,7 +978,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.402</v>
+        <v>0.419</v>
       </c>
       <c r="C50" t="n">
         <v>0.514</v>
@@ -989,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1</v>
+        <v>0.192</v>
       </c>
       <c r="C51" t="n">
         <v>0.52</v>
@@ -1000,7 +1000,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.307</v>
+        <v>0.296</v>
       </c>
       <c r="C52" t="n">
         <v>0.502</v>
@@ -1011,7 +1011,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C53" t="n">
         <v>0.75</v>
@@ -1022,7 +1022,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.198</v>
+        <v>0.216</v>
       </c>
       <c r="C54" t="n">
         <v>0.522</v>
@@ -1033,7 +1033,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.293</v>
+        <v>0.39</v>
       </c>
       <c r="C55" t="n">
         <v>0.508</v>
@@ -1044,7 +1044,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.04</v>
+        <v>0.027</v>
       </c>
       <c r="C56" t="n">
         <v>0.521</v>
@@ -1055,7 +1055,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.083</v>
+        <v>0.098</v>
       </c>
       <c r="C57" t="n">
         <v>0.516</v>
@@ -1066,7 +1066,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.368</v>
+        <v>0.45</v>
       </c>
       <c r="C58" t="n">
         <v>0.51</v>
@@ -1077,7 +1077,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.281</v>
+        <v>0.311</v>
       </c>
       <c r="C59" t="n">
         <v>0.505</v>
@@ -1088,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="C60" t="n">
         <v>0.503</v>
@@ -1099,7 +1099,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.053</v>
+        <v>0.067</v>
       </c>
       <c r="C61" t="n">
         <v>0.515</v>
@@ -1110,7 +1110,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.253</v>
+        <v>0.284</v>
       </c>
       <c r="C62" t="n">
         <v>0.507</v>
@@ -1121,7 +1121,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259</v>
+        <v>0.262</v>
       </c>
       <c r="C63" t="n">
         <v>0.503</v>
@@ -1132,7 +1132,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.078</v>
+        <v>0.065</v>
       </c>
       <c r="C64" t="n">
         <v>0.513</v>
@@ -1143,7 +1143,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.105</v>
+        <v>0.125</v>
       </c>
       <c r="C65" t="n">
         <v>0.51</v>
@@ -1154,7 +1154,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.183</v>
+        <v>0.215</v>
       </c>
       <c r="C66" t="n">
         <v>0.505</v>
@@ -1165,7 +1165,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.127</v>
+        <v>0.142</v>
       </c>
       <c r="C67" t="n">
         <v>0.508</v>
@@ -1176,7 +1176,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.208</v>
+        <v>0.246</v>
       </c>
       <c r="C68" t="n">
         <v>0.536</v>
@@ -1198,7 +1198,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.083</v>
+        <v>0.138</v>
       </c>
       <c r="C70" t="n">
         <v>0.533</v>
@@ -1209,7 +1209,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.201</v>
+        <v>0.266</v>
       </c>
       <c r="C71" t="n">
         <v>0.529</v>
@@ -1220,7 +1220,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.104</v>
+        <v>0.221</v>
       </c>
       <c r="C72" t="n">
         <v>0.583</v>
@@ -1231,7 +1231,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3</v>
+        <v>0.353</v>
       </c>
       <c r="C73" t="n">
         <v>0.538</v>
@@ -1242,7 +1242,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.188</v>
+        <v>0.287</v>
       </c>
       <c r="C74" t="n">
         <v>0.528</v>
@@ -1253,7 +1253,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.177</v>
+        <v>0.211</v>
       </c>
       <c r="C75" t="n">
         <v>0.571</v>
@@ -1264,7 +1264,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.169</v>
+        <v>0.28</v>
       </c>
       <c r="C76" t="n">
         <v>0.524</v>
@@ -1275,7 +1275,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.138</v>
+        <v>0.202</v>
       </c>
       <c r="C77" t="n">
         <v>0.529</v>
@@ -1286,7 +1286,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.117</v>
+        <v>0.138</v>
       </c>
       <c r="C78" t="n">
         <v>0.506</v>
@@ -1297,7 +1297,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.116</v>
+        <v>0.166</v>
       </c>
       <c r="C79" t="n">
         <v>0.506</v>
@@ -1308,7 +1308,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="C80" t="n">
         <v>0.512</v>
@@ -1319,7 +1319,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.097</v>
+        <v>0.142</v>
       </c>
       <c r="C81" t="n">
         <v>0.515</v>
@@ -1330,7 +1330,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.174</v>
+        <v>0.216</v>
       </c>
       <c r="C82" t="n">
         <v>0.518</v>
@@ -1341,7 +1341,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.129</v>
+        <v>0.148</v>
       </c>
       <c r="C83" t="n">
         <v>0.508</v>
@@ -1352,7 +1352,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.188</v>
+        <v>0.219</v>
       </c>
       <c r="C84" t="n">
         <v>0.516</v>
@@ -1363,7 +1363,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.328</v>
+        <v>0.327</v>
       </c>
       <c r="C85" t="n">
         <v>0.531</v>
@@ -1374,7 +1374,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.049</v>
+        <v>0.076</v>
       </c>
       <c r="C86" t="n">
         <v>0.516</v>
@@ -1385,7 +1385,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.241</v>
+        <v>0.245</v>
       </c>
       <c r="C87" t="n">
         <v>0.511</v>
@@ -1396,7 +1396,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C88" t="n">
         <v>0.513</v>
@@ -1407,7 +1407,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="C89" t="n">
         <v>0.536</v>
@@ -1418,7 +1418,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.246</v>
+        <v>0.323</v>
       </c>
       <c r="C90" t="n">
         <v>0.529</v>
@@ -1429,7 +1429,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.421</v>
+        <v>0.467</v>
       </c>
       <c r="C91" t="n">
         <v>0.518</v>
@@ -1440,7 +1440,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.289</v>
+        <v>0.308</v>
       </c>
       <c r="C92" t="n">
         <v>0.502</v>
@@ -1451,7 +1451,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.287</v>
+        <v>0.3</v>
       </c>
       <c r="C93" t="n">
         <v>0.505</v>
@@ -1462,7 +1462,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.038</v>
+        <v>0.126</v>
       </c>
       <c r="C94" t="n">
         <v>0.528</v>
@@ -1473,7 +1473,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.234</v>
+        <v>0.313</v>
       </c>
       <c r="C95" t="n">
         <v>0.512</v>
@@ -1484,7 +1484,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02</v>
+        <v>0.101</v>
       </c>
       <c r="C96" t="n">
         <v>0.556</v>
@@ -1495,7 +1495,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.123</v>
+        <v>0.216</v>
       </c>
       <c r="C97" t="n">
         <v>0.542</v>
@@ -1506,7 +1506,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.27</v>
+        <v>0.421</v>
       </c>
       <c r="C98" t="n">
         <v>0.545</v>
@@ -1517,7 +1517,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.097</v>
       </c>
       <c r="C99" t="n">
         <v>0.533</v>
@@ -1528,7 +1528,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.092</v>
+        <v>0.266</v>
       </c>
       <c r="C100" t="n">
         <v>0.6</v>
@@ -1539,7 +1539,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.124</v>
+        <v>0.215</v>
       </c>
       <c r="C101" t="n">
         <v>0.545</v>

--- a/saved_models/SetBased/results/setbased.xlsx
+++ b/saved_models/SetBased/results/setbased.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.258</v>
+        <v>0.181</v>
       </c>
       <c r="C2" t="n">
         <v>0.515</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.031</v>
+        <v>0.027</v>
       </c>
       <c r="C3" t="n">
         <v>0.571</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.132</v>
+        <v>0.134</v>
       </c>
       <c r="C4" t="n">
         <v>0.512</v>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.115</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>0.556</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.286</v>
+        <v>0.269</v>
       </c>
       <c r="C6" t="n">
         <v>0.504</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.156</v>
+        <v>0.139</v>
       </c>
       <c r="C7" t="n">
         <v>0.521</v>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.074</v>
+        <v>0.068</v>
       </c>
       <c r="C9" t="n">
         <v>0.523</v>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.18</v>
+        <v>0.091</v>
       </c>
       <c r="C10" t="n">
         <v>0.55</v>
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.349</v>
+        <v>0.271</v>
       </c>
       <c r="C11" t="n">
         <v>0.52</v>
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.465</v>
+        <v>0.244</v>
       </c>
       <c r="C12" t="n">
         <v>0.523</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.257</v>
+        <v>0.065</v>
       </c>
       <c r="C13" t="n">
         <v>0.571</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.111</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C14" t="n">
         <v>0.521</v>
@@ -593,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.179</v>
+        <v>0.129</v>
       </c>
       <c r="C15" t="n">
         <v>0.509</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.226</v>
+        <v>0.173</v>
       </c>
       <c r="C16" t="n">
         <v>0.505</v>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.301</v>
+        <v>0.309</v>
       </c>
       <c r="C17" t="n">
         <v>0.503</v>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.153</v>
+        <v>0.145</v>
       </c>
       <c r="C18" t="n">
         <v>0.509</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.197</v>
+        <v>0.18</v>
       </c>
       <c r="C19" t="n">
         <v>0.524</v>
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.143</v>
+        <v>0.105</v>
       </c>
       <c r="C20" t="n">
         <v>0.523</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.398</v>
+        <v>0.391</v>
       </c>
       <c r="C21" t="n">
         <v>0.511</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.158</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C22" t="n">
         <v>0.52</v>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.221</v>
+        <v>0.23</v>
       </c>
       <c r="C23" t="n">
         <v>0.507</v>
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.054</v>
+        <v>0.04</v>
       </c>
       <c r="C24" t="n">
         <v>0.514</v>
@@ -703,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.058</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C25" t="n">
         <v>0.516</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.182</v>
+        <v>0.135</v>
       </c>
       <c r="C26" t="n">
         <v>0.51</v>
@@ -725,7 +725,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.339</v>
+        <v>0.302</v>
       </c>
       <c r="C27" t="n">
         <v>0.515</v>
@@ -736,7 +736,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.18</v>
+        <v>0.036</v>
       </c>
       <c r="C28" t="n">
         <v>0.545</v>
@@ -747,7 +747,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.179</v>
+        <v>0.201</v>
       </c>
       <c r="C29" t="n">
         <v>0.51</v>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.097</v>
+        <v>0.09</v>
       </c>
       <c r="C30" t="n">
         <v>0.511</v>
@@ -769,7 +769,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.183</v>
+        <v>0.132</v>
       </c>
       <c r="C31" t="n">
         <v>0.529</v>
@@ -780,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.203</v>
+        <v>0.148</v>
       </c>
       <c r="C32" t="n">
         <v>0.509</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.111</v>
+        <v>0.082</v>
       </c>
       <c r="C33" t="n">
         <v>0.517</v>
@@ -802,7 +802,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.215</v>
+        <v>0.19</v>
       </c>
       <c r="C34" t="n">
         <v>0.509</v>
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.264</v>
+        <v>0.211</v>
       </c>
       <c r="C35" t="n">
         <v>0.513</v>
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.081</v>
+        <v>0.095</v>
       </c>
       <c r="C36" t="n">
         <v>0.536</v>
@@ -835,7 +835,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.104</v>
+        <v>0.112</v>
       </c>
       <c r="C37" t="n">
         <v>0.556</v>
@@ -846,7 +846,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.439</v>
+        <v>0.367</v>
       </c>
       <c r="C38" t="n">
         <v>0.505</v>
@@ -857,7 +857,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.055</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="C39" t="n">
         <v>0.509</v>
@@ -868,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304</v>
+        <v>0.299</v>
       </c>
       <c r="C40" t="n">
         <v>0.503</v>
@@ -879,7 +879,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.224</v>
+        <v>0.205</v>
       </c>
       <c r="C41" t="n">
         <v>0.503</v>
@@ -890,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.206</v>
+        <v>0.255</v>
       </c>
       <c r="C42" t="n">
         <v>0.533</v>
@@ -901,7 +901,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.117</v>
+        <v>0.103</v>
       </c>
       <c r="C43" t="n">
         <v>0.511</v>
@@ -912,7 +912,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.23</v>
+        <v>0.221</v>
       </c>
       <c r="C44" t="n">
         <v>0.505</v>
@@ -923,7 +923,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.38</v>
+        <v>0.299</v>
       </c>
       <c r="C45" t="n">
         <v>0.504</v>
@@ -934,7 +934,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.17</v>
+        <v>0.077</v>
       </c>
       <c r="C46" t="n">
         <v>0.525</v>
@@ -945,7 +945,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.186</v>
+        <v>0.141</v>
       </c>
       <c r="C47" t="n">
         <v>0.528</v>
@@ -956,7 +956,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.104</v>
+        <v>0.09</v>
       </c>
       <c r="C48" t="n">
         <v>0.508</v>
@@ -967,7 +967,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156</v>
+        <v>0.175</v>
       </c>
       <c r="C49" t="n">
         <v>0.517</v>
@@ -978,7 +978,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.419</v>
+        <v>0.402</v>
       </c>
       <c r="C50" t="n">
         <v>0.514</v>
@@ -989,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.192</v>
+        <v>0.1</v>
       </c>
       <c r="C51" t="n">
         <v>0.52</v>
@@ -1000,7 +1000,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.296</v>
+        <v>0.307</v>
       </c>
       <c r="C52" t="n">
         <v>0.502</v>
@@ -1011,7 +1011,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="C53" t="n">
         <v>0.75</v>
@@ -1022,7 +1022,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.216</v>
+        <v>0.198</v>
       </c>
       <c r="C54" t="n">
         <v>0.522</v>
@@ -1033,7 +1033,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.39</v>
+        <v>0.293</v>
       </c>
       <c r="C55" t="n">
         <v>0.508</v>
@@ -1044,7 +1044,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.027</v>
+        <v>0.04</v>
       </c>
       <c r="C56" t="n">
         <v>0.521</v>
@@ -1055,7 +1055,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.098</v>
+        <v>0.083</v>
       </c>
       <c r="C57" t="n">
         <v>0.516</v>
@@ -1066,7 +1066,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.45</v>
+        <v>0.368</v>
       </c>
       <c r="C58" t="n">
         <v>0.51</v>
@@ -1077,7 +1077,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.311</v>
+        <v>0.281</v>
       </c>
       <c r="C59" t="n">
         <v>0.505</v>
@@ -1088,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="C60" t="n">
         <v>0.503</v>
@@ -1099,7 +1099,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.067</v>
+        <v>0.053</v>
       </c>
       <c r="C61" t="n">
         <v>0.515</v>
@@ -1110,7 +1110,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.284</v>
+        <v>0.253</v>
       </c>
       <c r="C62" t="n">
         <v>0.507</v>
@@ -1121,7 +1121,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.262</v>
+        <v>0.259</v>
       </c>
       <c r="C63" t="n">
         <v>0.503</v>
@@ -1132,7 +1132,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.065</v>
+        <v>0.078</v>
       </c>
       <c r="C64" t="n">
         <v>0.513</v>
@@ -1143,7 +1143,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.125</v>
+        <v>0.105</v>
       </c>
       <c r="C65" t="n">
         <v>0.51</v>
@@ -1154,7 +1154,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.215</v>
+        <v>0.183</v>
       </c>
       <c r="C66" t="n">
         <v>0.505</v>
@@ -1165,7 +1165,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.142</v>
+        <v>0.127</v>
       </c>
       <c r="C67" t="n">
         <v>0.508</v>
@@ -1176,7 +1176,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246</v>
+        <v>0.208</v>
       </c>
       <c r="C68" t="n">
         <v>0.536</v>
@@ -1198,7 +1198,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.138</v>
+        <v>0.083</v>
       </c>
       <c r="C70" t="n">
         <v>0.533</v>
@@ -1209,7 +1209,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.266</v>
+        <v>0.201</v>
       </c>
       <c r="C71" t="n">
         <v>0.529</v>
@@ -1220,7 +1220,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.221</v>
+        <v>0.104</v>
       </c>
       <c r="C72" t="n">
         <v>0.583</v>
@@ -1231,7 +1231,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.353</v>
+        <v>0.3</v>
       </c>
       <c r="C73" t="n">
         <v>0.538</v>
@@ -1242,7 +1242,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.287</v>
+        <v>0.188</v>
       </c>
       <c r="C74" t="n">
         <v>0.528</v>
@@ -1253,7 +1253,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.211</v>
+        <v>0.177</v>
       </c>
       <c r="C75" t="n">
         <v>0.571</v>
@@ -1264,7 +1264,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.28</v>
+        <v>0.169</v>
       </c>
       <c r="C76" t="n">
         <v>0.524</v>
@@ -1275,7 +1275,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.202</v>
+        <v>0.138</v>
       </c>
       <c r="C77" t="n">
         <v>0.529</v>
@@ -1286,7 +1286,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.138</v>
+        <v>0.117</v>
       </c>
       <c r="C78" t="n">
         <v>0.506</v>
@@ -1297,7 +1297,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.166</v>
+        <v>0.116</v>
       </c>
       <c r="C79" t="n">
         <v>0.506</v>
@@ -1308,7 +1308,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="C80" t="n">
         <v>0.512</v>
@@ -1319,7 +1319,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.142</v>
+        <v>0.097</v>
       </c>
       <c r="C81" t="n">
         <v>0.515</v>
@@ -1330,7 +1330,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.216</v>
+        <v>0.174</v>
       </c>
       <c r="C82" t="n">
         <v>0.518</v>
@@ -1341,7 +1341,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.148</v>
+        <v>0.129</v>
       </c>
       <c r="C83" t="n">
         <v>0.508</v>
@@ -1352,7 +1352,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.219</v>
+        <v>0.188</v>
       </c>
       <c r="C84" t="n">
         <v>0.516</v>
@@ -1363,7 +1363,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="C85" t="n">
         <v>0.531</v>
@@ -1374,7 +1374,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.076</v>
+        <v>0.049</v>
       </c>
       <c r="C86" t="n">
         <v>0.516</v>
@@ -1385,7 +1385,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.245</v>
+        <v>0.241</v>
       </c>
       <c r="C87" t="n">
         <v>0.511</v>
@@ -1396,7 +1396,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C88" t="n">
         <v>0.513</v>
@@ -1407,7 +1407,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.103</v>
+        <v>0.102</v>
       </c>
       <c r="C89" t="n">
         <v>0.536</v>
@@ -1418,7 +1418,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.323</v>
+        <v>0.246</v>
       </c>
       <c r="C90" t="n">
         <v>0.529</v>
@@ -1429,7 +1429,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.467</v>
+        <v>0.421</v>
       </c>
       <c r="C91" t="n">
         <v>0.518</v>
@@ -1440,7 +1440,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.308</v>
+        <v>0.289</v>
       </c>
       <c r="C92" t="n">
         <v>0.502</v>
@@ -1451,7 +1451,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3</v>
+        <v>0.287</v>
       </c>
       <c r="C93" t="n">
         <v>0.505</v>
@@ -1462,7 +1462,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.126</v>
+        <v>0.038</v>
       </c>
       <c r="C94" t="n">
         <v>0.528</v>
@@ -1473,7 +1473,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.313</v>
+        <v>0.234</v>
       </c>
       <c r="C95" t="n">
         <v>0.512</v>
@@ -1484,7 +1484,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.101</v>
+        <v>0.02</v>
       </c>
       <c r="C96" t="n">
         <v>0.556</v>
@@ -1495,7 +1495,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.216</v>
+        <v>0.123</v>
       </c>
       <c r="C97" t="n">
         <v>0.542</v>
@@ -1506,7 +1506,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.421</v>
+        <v>0.27</v>
       </c>
       <c r="C98" t="n">
         <v>0.545</v>
@@ -1517,7 +1517,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.097</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C99" t="n">
         <v>0.533</v>
@@ -1528,7 +1528,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.266</v>
+        <v>0.092</v>
       </c>
       <c r="C100" t="n">
         <v>0.6</v>
@@ -1539,7 +1539,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.215</v>
+        <v>0.124</v>
       </c>
       <c r="C101" t="n">
         <v>0.545</v>
